--- a/azota_assets/medias/excel_add_teacher_exp_v5.xlsx
+++ b/azota_assets/medias/excel_add_teacher_exp_v5.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenvantuan/sources/azota/frontend/frontend.azota1/core/ClientApp/src/assets/medias/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F9AC02-12D9-634C-86A2-F5A85DCD090E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23720" windowHeight="11280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>STT</t>
   </si>
@@ -47,9 +48,6 @@
     <t>Hồ Văn E</t>
   </si>
   <si>
-    <t>Số điện thoại</t>
-  </si>
-  <si>
     <t>0988868680</t>
   </si>
   <si>
@@ -59,12 +57,6 @@
     <t>0988868682</t>
   </si>
   <si>
-    <t>0988868683</t>
-  </si>
-  <si>
-    <t>0988868684</t>
-  </si>
-  <si>
     <t>*Một số điện thoại chỉ dùng với một giáo viên</t>
   </si>
   <si>
@@ -74,32 +66,23 @@
     <t>*Số điện thoại: yêu cầu nhập đầy đủ và đúng định dạng 10 số</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>*Một email chỉ dùng với một giáo viên</t>
   </si>
   <si>
-    <t>nguyenvana@gmail.com</t>
-  </si>
-  <si>
-    <t>phamthib@gmail.com</t>
-  </si>
-  <si>
-    <t>tongvanc@gmail.com</t>
-  </si>
-  <si>
     <t>tranthid@gmail.com</t>
   </si>
   <si>
     <t>hovane@gmail.com</t>
+  </si>
+  <si>
+    <t>Số điện thoại hoặc Email</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -135,15 +118,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,12 +130,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00A933"/>
         <bgColor rgb="FF008000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00A933"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -176,14 +146,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -199,11 +166,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -557,173 +523,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
-    <col min="6" max="12" width="8.5703125" customWidth="1"/>
-    <col min="13" max="13" width="25.42578125" customWidth="1"/>
-    <col min="14" max="1026" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
+    <col min="5" max="11" width="8.5" customWidth="1"/>
+    <col min="12" max="12" width="25.5" customWidth="1"/>
+    <col min="13" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E1"/>
-      <c r="H1" s="4"/>
-      <c r="I1"/>
+      <c r="D1"/>
+      <c r="G1" s="3"/>
+      <c r="H1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>22</v>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E4:L4"/>
+    <mergeCell ref="E5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{0476E912-A4E2-5849-9D5D-7CAF9651D24B}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{BA3D6CC7-419F-0E4D-99F9-A3ACDAC3FEF9}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
